--- a/Music and Memory/Testing/BehaviouralResults.xlsx
+++ b/Music and Memory/Testing/BehaviouralResults.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28705"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="820" windowWidth="33300" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1740" windowWidth="34820" windowHeight="18620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="313">
   <si>
     <t>ID</t>
   </si>
@@ -625,13 +625,352 @@
   </si>
   <si>
     <t>Group B # of listens</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>05/02/2018 16:23:16</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>07/02/2018 15:00:26</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>12/02/2018 16:07:15</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>14/02/2018 14:42:57</t>
+  </si>
+  <si>
+    <t>14/02/2018</t>
+  </si>
+  <si>
+    <t>lab4</t>
+  </si>
+  <si>
+    <t>28/02/2018 13:27:01</t>
+  </si>
+  <si>
+    <t>28/02/2018</t>
+  </si>
+  <si>
+    <t>22/01/2018 14:07:45</t>
+  </si>
+  <si>
+    <t>22/01/2018</t>
+  </si>
+  <si>
+    <t>24/01/2018 11:40:52</t>
+  </si>
+  <si>
+    <t>24/01/2018</t>
+  </si>
+  <si>
+    <t>29/01/2018 11:33:03</t>
+  </si>
+  <si>
+    <t>29/01/2018</t>
+  </si>
+  <si>
+    <t>31/01/2018 13:30:11</t>
+  </si>
+  <si>
+    <t>31/01/2018</t>
+  </si>
+  <si>
+    <t>02/02/2018 12:33:28</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>26/02/2018 11:49:29</t>
+  </si>
+  <si>
+    <t>26/02/2018</t>
+  </si>
+  <si>
+    <t>28/02/2018 14:37:51</t>
+  </si>
+  <si>
+    <t>02/03/2018 13:36:57</t>
+  </si>
+  <si>
+    <t>02/03/2018</t>
+  </si>
+  <si>
+    <t>05/03/2018 09:42:00</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>05/03/2018 12:09:03</t>
+  </si>
+  <si>
+    <t>16/01/2018 13:21:54</t>
+  </si>
+  <si>
+    <t>16/01/2018</t>
+  </si>
+  <si>
+    <t>18/01/2018 13:29:33</t>
+  </si>
+  <si>
+    <t>18/01/2018</t>
+  </si>
+  <si>
+    <t>23/01/2018 13:21:38</t>
+  </si>
+  <si>
+    <t>23/01/2018</t>
+  </si>
+  <si>
+    <t>25/01/2018 13:43:46</t>
+  </si>
+  <si>
+    <t>25/01/2018</t>
+  </si>
+  <si>
+    <t>29/01/2018 10:01:21</t>
+  </si>
+  <si>
+    <t>11/01/2018 15:56:35</t>
+  </si>
+  <si>
+    <t>11/01/2018</t>
+  </si>
+  <si>
+    <t>15/01/2018 14:59:47</t>
+  </si>
+  <si>
+    <t>15/01/2018</t>
+  </si>
+  <si>
+    <t>17/01/2018 12:34:51</t>
+  </si>
+  <si>
+    <t>17/01/2018</t>
+  </si>
+  <si>
+    <t>22/01/2018 14:52:04</t>
+  </si>
+  <si>
+    <t>24/01/2018 11:52:52</t>
+  </si>
+  <si>
+    <t>12/01/2018 14:39:54</t>
+  </si>
+  <si>
+    <t>12/01/2018</t>
+  </si>
+  <si>
+    <t>15/01/2018 09:31:32</t>
+  </si>
+  <si>
+    <t>lab2</t>
+  </si>
+  <si>
+    <t>17/01/2018 15:35:28</t>
+  </si>
+  <si>
+    <t>24/01/2018 14:36:04</t>
+  </si>
+  <si>
+    <t>26/01/2018 13:47:29</t>
+  </si>
+  <si>
+    <t>26/01/2018</t>
+  </si>
+  <si>
+    <t>06/02/2018 01:21:51</t>
+  </si>
+  <si>
+    <t>08/02/2018 00:51:30</t>
+  </si>
+  <si>
+    <t>14/02/2018 13:43:28</t>
+  </si>
+  <si>
+    <t>14/02/2018 14:19:18</t>
+  </si>
+  <si>
+    <t>26/02/2018 13:36:07</t>
+  </si>
+  <si>
+    <t>11/01/2018 12:19:26</t>
+  </si>
+  <si>
+    <t>Mandarin 5, French 3</t>
+  </si>
+  <si>
+    <t>Piano, 11 years</t>
+  </si>
+  <si>
+    <t>10 or more years</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>16/01/2018 12:30:08</t>
+  </si>
+  <si>
+    <t>Cantonese (5), Mandarin, (4), Korean, (4), French (3)</t>
+  </si>
+  <si>
+    <t>Piano, 11 years; saxophone, 8 years; violin, 7 years; guitar, 6 years; voice, 4 years</t>
+  </si>
+  <si>
+    <t>piano, guitar, voice</t>
+  </si>
+  <si>
+    <t>5 or more hours</t>
+  </si>
+  <si>
+    <t>7 or more years</t>
+  </si>
+  <si>
+    <t>cell phone/laptop connected to speakers</t>
+  </si>
+  <si>
+    <t>09/01/2018 11:49:25</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>French (4)</t>
+  </si>
+  <si>
+    <t>Voice, 16 years; Piano, 3 years; Trumpet, 6 years</t>
+  </si>
+  <si>
+    <t>Voice</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>Laptop with speakers</t>
+  </si>
+  <si>
+    <t>02/02/2018 12:07:32</t>
+  </si>
+  <si>
+    <t>Some university undergraduate schooling</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>10/01/2018 11:18:36</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Piano (8 yrs), Violin (1 yr), Ukulele (1 yr), Guitar (1 yr)</t>
+  </si>
+  <si>
+    <t>3-4 hours</t>
+  </si>
+  <si>
+    <t>Phone with ear/headphone</t>
+  </si>
+  <si>
+    <t>depends on the song</t>
+  </si>
+  <si>
+    <t>17/01/2018 11:22:52</t>
+  </si>
+  <si>
+    <t>Bangla - 5, French - 3</t>
+  </si>
+  <si>
+    <t>Clarinet, 3 years</t>
+  </si>
+  <si>
+    <t>2-3 hours</t>
+  </si>
+  <si>
+    <t>My phone</t>
+  </si>
+  <si>
+    <t>16/02/2018 12:24:08</t>
+  </si>
+  <si>
+    <t>16/02/2018</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>College degree (2 years)</t>
+  </si>
+  <si>
+    <t>Guitar, 8 years; Piano, 2 years; Percussion, 2 years</t>
+  </si>
+  <si>
+    <t>08/02/2018 00:55:06</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>English - 5</t>
+  </si>
+  <si>
+    <t>piano, 7 years; guitar, 5 years; voice, 2 years; saxophone, 1 year; clarinet, 2 years</t>
+  </si>
+  <si>
+    <t>piano, guitar, drums, voice</t>
+  </si>
+  <si>
+    <t>0.5 years</t>
+  </si>
+  <si>
+    <t>desktop computer - studio monitors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,6 +997,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -676,20 +1043,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -957,7 +1334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -965,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U2" sqref="U2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -983,110 +1360,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-    </row>
-    <row r="2" spans="1:28" s="5" customFormat="1">
-      <c r="A2" s="5" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+    </row>
+    <row r="2" spans="1:28" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <v>52</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <v>42</v>
       </c>
-      <c r="O2" s="5">
-        <v>2</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="O2" s="4">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4">
         <v>132</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>122</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="4">
         <v>142</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>92</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="4">
         <v>62</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>22</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>32</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>12</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="4">
         <v>72</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>112</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>152</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>102</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>82</v>
       </c>
     </row>
@@ -1271,10 +1648,10 @@
       <c r="F6">
         <v>90</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>82.758600000000001</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>90.304299999999998</v>
       </c>
       <c r="L6">
@@ -1430,10 +1807,10 @@
       <c r="F9">
         <v>70</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>80.952399999999997</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>82.608699999999999</v>
       </c>
       <c r="L9">
@@ -1462,6 +1839,230 @@
       </c>
       <c r="T9">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10">
+        <v>118</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>12</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>8</v>
+      </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11">
+        <v>108</v>
+      </c>
+      <c r="U11">
+        <v>11</v>
+      </c>
+      <c r="V11">
+        <v>11</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <v>11</v>
+      </c>
+      <c r="Y11">
+        <v>10</v>
+      </c>
+      <c r="Z11">
+        <v>10</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12">
+        <v>132</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+      <c r="N12">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>11</v>
+      </c>
+      <c r="P12">
+        <v>13</v>
+      </c>
+      <c r="Q12">
+        <v>17</v>
+      </c>
+      <c r="R12">
+        <v>14</v>
+      </c>
+      <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13">
+        <v>89</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13">
+        <v>9</v>
+      </c>
+      <c r="Z13">
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AB13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="L14">
+        <v>112</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="L15">
+        <v>127</v>
+      </c>
+      <c r="U15">
+        <v>16</v>
+      </c>
+      <c r="V15">
+        <v>17</v>
+      </c>
+      <c r="W15">
+        <v>19</v>
+      </c>
+      <c r="X15">
+        <v>17</v>
+      </c>
+      <c r="Y15">
+        <v>16</v>
+      </c>
+      <c r="Z15">
+        <v>18</v>
+      </c>
+      <c r="AA15">
+        <v>18</v>
+      </c>
+      <c r="AB15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16">
+        <v>113</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>12</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1470,7 +2071,7 @@
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1481,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2415,6 +3016,846 @@
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="1">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+    </row>
+    <row r="11" spans="1:39" s="7" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="6">
+        <v>109</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="6">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6">
+        <v>7</v>
+      </c>
+      <c r="N11" s="6">
+        <v>7</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>7</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="1">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="1">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="1">
+        <v>111</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M13" s="1">
+        <v>6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>2</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="1">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="1">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="1">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="1">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>7</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="1">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" s="1">
+        <v>6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>6</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="A17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B17" s="1">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>7</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2428,10 +3869,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A20" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2959,7 +4400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -2997,7 +4438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -3035,7 +4476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -3073,7 +4514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -3111,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>194</v>
       </c>
@@ -3149,7 +4590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>195</v>
       </c>
@@ -3187,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -3225,7 +4666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>197</v>
       </c>
@@ -3262,6 +4703,666 @@
       <c r="L25">
         <v>3</v>
       </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="1">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="1">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4</v>
+      </c>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="1">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>4</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>3</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="1">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>4</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="1">
+        <v>111</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>4</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="1">
+        <v>113</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="1">
+        <v>113</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>4</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>3</v>
+      </c>
+      <c r="K34" s="1">
+        <v>2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="1">
+        <v>113</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>3</v>
+      </c>
+      <c r="J35" s="1">
+        <v>3</v>
+      </c>
+      <c r="K35" s="1">
+        <v>2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" s="1">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>4</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4</v>
+      </c>
+      <c r="K36" s="1">
+        <v>2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B37" s="1">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="1">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>5</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1">
+        <v>3</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="1">
+        <v>115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="1">
+        <v>5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>5</v>
+      </c>
+      <c r="J40" s="1">
+        <v>4</v>
+      </c>
+      <c r="K40" s="1">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="1">
+        <v>115</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
+        <v>4</v>
+      </c>
+      <c r="K41" s="1">
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B42" s="1">
+        <v>115</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="1">
+        <v>5</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1">
+        <v>4</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3</v>
+      </c>
+      <c r="L42" s="1">
+        <v>2</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="1">
+        <v>115</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1">
+        <v>4</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3</v>
+      </c>
+      <c r="L43" s="1">
+        <v>2</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3275,10 +5376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3803,7 +5904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -3841,7 +5942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -3878,6 +5979,886 @@
       <c r="L18">
         <v>3</v>
       </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="1">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="1">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="1">
+        <v>108</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="1">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="1">
+        <v>108</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" s="1">
+        <v>3</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" s="1">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B27" s="1">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="1">
+        <v>110</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <v>4</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="1">
+        <v>110</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>4</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B30" s="1">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="1">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>4</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" s="1">
+        <v>112</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>4</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="1">
+        <v>112</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="1">
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B36" s="1">
+        <v>112</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5</v>
+      </c>
+      <c r="G36" s="1">
+        <v>4</v>
+      </c>
+      <c r="H36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1">
+        <v>4</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="1">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="1">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" s="1">
+        <v>114</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" s="1">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="1">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>3</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Music and Memory/Testing/BehaviouralResults.xlsx
+++ b/Music and Memory/Testing/BehaviouralResults.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asternin\Documents\PhDProject.git\Music and Memory\Testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1740" windowWidth="34820" windowHeight="18620" tabRatio="500"/>
+    <workbookView xWindow="1125" yWindow="1740" windowWidth="34815" windowHeight="18615" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Listening Info" sheetId="1" r:id="rId1"/>
@@ -17,9 +22,6 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -51,12 +53,6 @@
     <t>Lyric mod full 7</t>
   </si>
   <si>
-    <t>Beat Perception</t>
-  </si>
-  <si>
-    <t>Melody Memory</t>
-  </si>
-  <si>
     <t>Old v New Melody</t>
   </si>
   <si>
@@ -964,6 +960,12 @@
   </si>
   <si>
     <t>desktop computer - studio monitors</t>
+  </si>
+  <si>
+    <t>Beat Perception (17)</t>
+  </si>
+  <si>
+    <t>Melody Memory (13)</t>
   </si>
 </sst>
 </file>
@@ -1056,11 +1058,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1074,6 +1076,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1334,7 +1339,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1346,42 +1351,42 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
     <col min="11" max="12" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="M1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" s="4" customFormat="1">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+    </row>
+    <row r="2" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1407,16 +1412,16 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M2" s="4">
         <v>52</v>
@@ -1467,9 +1472,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>28.571400000000001</v>
@@ -1523,9 +1528,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>37.930999999999997</v>
@@ -1545,6 +1550,12 @@
       <c r="H4">
         <v>100</v>
       </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
       <c r="K4">
         <v>95.652199999999993</v>
       </c>
@@ -1576,9 +1587,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>23.8095</v>
@@ -1598,6 +1609,12 @@
       <c r="H5" s="2">
         <v>66.667000000000002</v>
       </c>
+      <c r="I5" s="2">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
       <c r="K5">
         <v>100</v>
       </c>
@@ -1629,9 +1646,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>51.7241</v>
@@ -1651,6 +1668,12 @@
       <c r="H6" s="3">
         <v>82.758600000000001</v>
       </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
       <c r="K6" s="3">
         <v>90.304299999999998</v>
       </c>
@@ -1682,9 +1705,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>33.332999999999998</v>
@@ -1704,6 +1727,9 @@
       <c r="H7">
         <v>85.714299999999994</v>
       </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
       <c r="K7">
         <v>91.304299999999998</v>
       </c>
@@ -1735,9 +1761,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>51.7241</v>
@@ -1757,6 +1783,12 @@
       <c r="H8">
         <v>79.310299999999998</v>
       </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
       <c r="K8">
         <v>86.959599999999995</v>
       </c>
@@ -1788,9 +1820,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>23.8095</v>
@@ -1810,6 +1842,12 @@
       <c r="H9" s="3">
         <v>80.952399999999997</v>
       </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
       <c r="K9" s="3">
         <v>82.608699999999999</v>
       </c>
@@ -1841,9 +1879,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B10">
+        <v>48.2759</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>86.29</v>
+      </c>
+      <c r="I10">
+        <v>12</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>82.608699999999999</v>
       </c>
       <c r="L10">
         <v>118</v>
@@ -1873,9 +1938,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="B11">
+        <v>48.2759</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>95.652199999999993</v>
       </c>
       <c r="L11">
         <v>108</v>
@@ -1905,9 +1997,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>200</v>
+      </c>
+      <c r="B12">
+        <v>14.2857</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>90.746200000000002</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
       </c>
       <c r="L12">
         <v>132</v>
@@ -1937,9 +2053,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+      <c r="B13">
+        <v>48.2759</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+      <c r="H13">
+        <v>75.862099999999998</v>
+      </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>86.956500000000005</v>
       </c>
       <c r="L13">
         <v>89</v>
@@ -1969,9 +2109,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>202</v>
+      </c>
+      <c r="B14">
+        <v>38.095199999999998</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <v>80.952399999999997</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
       </c>
       <c r="L14">
         <v>112</v>
@@ -2001,9 +2168,36 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="B15">
+        <v>44.827599999999997</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="H15">
+        <v>79.310299999999998</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>95.652199999999993</v>
       </c>
       <c r="L15">
         <v>127</v>
@@ -2033,9 +2227,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="B16">
+        <v>19.047599999999999</v>
+      </c>
+      <c r="C16">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>76.1905</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>95.652199999999993</v>
       </c>
       <c r="L16">
         <v>113</v>
@@ -2088,105 +2309,105 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
@@ -2195,39 +2416,39 @@
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="1">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1">
@@ -2237,34 +2458,34 @@
         <v>6</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="Y2" s="1">
         <v>6</v>
@@ -2291,7 +2512,7 @@
         <v>6</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
@@ -2300,39 +2521,39 @@
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1">
         <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1">
@@ -2342,30 +2563,30 @@
         <v>3</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="Y3" s="1">
         <v>7</v>
@@ -2392,7 +2613,7 @@
         <v>7</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
@@ -2401,39 +2622,39 @@
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1">
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1">
         <v>39</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1">
@@ -2443,32 +2664,32 @@
         <v>5</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="Y4" s="1">
         <v>5</v>
@@ -2495,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
@@ -2504,42 +2725,42 @@
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1">
         <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D5" s="1">
         <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="M5" s="1">
         <v>6</v>
@@ -2548,30 +2769,30 @@
         <v>3</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Y5" s="1">
         <v>3</v>
@@ -2598,7 +2819,7 @@
         <v>5</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
@@ -2607,39 +2828,39 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1">
         <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1">
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1">
@@ -2649,30 +2870,30 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="X6" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y6" s="1">
         <v>3</v>
@@ -2699,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
@@ -2708,39 +2929,39 @@
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1">
         <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1">
@@ -2750,34 +2971,34 @@
         <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="Y7" s="1">
         <v>5</v>
@@ -2804,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="AG7" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -2813,39 +3034,39 @@
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1">
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1">
@@ -2855,32 +3076,32 @@
         <v>6</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y8" s="1">
         <v>2</v>
@@ -2907,7 +3128,7 @@
         <v>7</v>
       </c>
       <c r="AG8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
@@ -2916,39 +3137,39 @@
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="1">
         <v>107</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1">
@@ -2958,30 +3179,30 @@
         <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="Y9" s="1">
         <v>4</v>
@@ -3008,7 +3229,7 @@
         <v>5</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
@@ -3017,39 +3238,39 @@
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B10" s="1">
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1">
@@ -3059,34 +3280,34 @@
         <v>7</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="R10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="Y10" s="1">
         <v>5</v>
@@ -3113,7 +3334,7 @@
         <v>6</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
@@ -3122,144 +3343,144 @@
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
-    <row r="11" spans="1:39" s="7" customFormat="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="5">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="5">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>7</v>
+      </c>
+      <c r="N11" s="5">
+        <v>7</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="6">
-        <v>109</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="6">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="Q11" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6">
+      <c r="R11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y11" s="5">
         <v>7</v>
       </c>
-      <c r="N11" s="6">
+      <c r="Z11" s="5">
         <v>7</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="T11" s="6" t="s">
+      <c r="AA11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>7</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>6</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>6</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>7</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="B12" s="1">
         <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D12" s="1">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1">
@@ -3269,34 +3490,34 @@
         <v>7</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="Y12" s="1">
         <v>7</v>
@@ -3323,7 +3544,7 @@
         <v>7</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -3332,42 +3553,42 @@
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1">
         <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D13" s="1">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M13" s="1">
         <v>6</v>
@@ -3376,34 +3597,34 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y13" s="1">
         <v>2</v>
@@ -3430,7 +3651,7 @@
         <v>4</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
@@ -3439,39 +3660,39 @@
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1">
         <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D14" s="1">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1">
@@ -3481,34 +3702,34 @@
         <v>5</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P14" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="Y14" s="1">
         <v>5</v>
@@ -3535,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
@@ -3544,39 +3765,39 @@
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B15" s="1">
         <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1">
         <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1">
@@ -3586,32 +3807,32 @@
         <v>2</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Y15" s="1">
         <v>5</v>
@@ -3638,7 +3859,7 @@
         <v>7</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
@@ -3647,42 +3868,42 @@
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1">
         <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1">
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M16" s="1">
         <v>6</v>
@@ -3691,34 +3912,34 @@
         <v>6</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="U16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X16" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="Y16" s="1">
         <v>7</v>
@@ -3745,7 +3966,7 @@
         <v>6</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
@@ -3754,37 +3975,37 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B17" s="1">
         <v>115</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D17" s="1">
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1">
@@ -3794,34 +4015,34 @@
         <v>6</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="V17" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y17" s="1">
         <v>6</v>
@@ -3848,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="AG17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
@@ -3875,46 +4096,46 @@
       <selection activeCell="A39" sqref="A39:R43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3944,15 +4165,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3982,15 +4203,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -4020,15 +4241,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -4058,15 +4279,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -4096,18 +4317,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4134,18 +4355,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4172,18 +4393,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -4210,18 +4431,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>4</v>
@@ -4248,15 +4469,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -4286,18 +4507,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>103</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>5</v>
@@ -4324,18 +4545,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -4362,18 +4583,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -4400,18 +4621,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -4438,18 +4659,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <v>5</v>
@@ -4476,18 +4697,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -4514,18 +4735,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B21">
         <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -4552,18 +4773,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22">
         <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -4590,18 +4811,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B23">
         <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -4628,18 +4849,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24">
         <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -4666,18 +4887,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B25">
         <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -4704,18 +4925,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B27" s="1">
         <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -4748,18 +4969,18 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B28" s="1">
         <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -4792,18 +5013,18 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B29" s="1">
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -4836,18 +5057,18 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B30" s="1">
         <v>111</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -4880,18 +5101,18 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B31" s="1">
         <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1">
         <v>5</v>
@@ -4924,18 +5145,18 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B33" s="1">
         <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1">
         <v>3</v>
@@ -4968,18 +5189,18 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B34" s="1">
         <v>113</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -5012,18 +5233,18 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B35" s="1">
         <v>113</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
@@ -5056,18 +5277,18 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B36" s="1">
         <v>113</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="1">
         <v>3</v>
@@ -5100,18 +5321,18 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B37" s="1">
         <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
@@ -5144,18 +5365,18 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B39" s="1">
         <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
@@ -5188,18 +5409,18 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B40" s="1">
         <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -5232,18 +5453,18 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" s="1">
         <v>115</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -5276,18 +5497,18 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B42" s="1">
         <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
@@ -5320,18 +5541,18 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B43" s="1">
         <v>115</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -5382,198 +5603,198 @@
       <selection activeCell="A38" sqref="A38:R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>102</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>42</v>
       </c>
       <c r="B3">
         <v>102</v>
       </c>
       <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>45</v>
       </c>
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>48</v>
       </c>
       <c r="B5">
         <v>102</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>51</v>
       </c>
       <c r="B6">
         <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -5600,18 +5821,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -5638,18 +5859,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -5676,18 +5897,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -5714,18 +5935,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B11">
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -5752,18 +5973,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12">
         <v>104</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -5790,18 +6011,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B14">
         <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -5828,18 +6049,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -5866,18 +6087,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>106</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -5904,18 +6125,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -5942,18 +6163,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18">
         <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -5980,18 +6201,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B20" s="1">
         <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -6024,18 +6245,18 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B21" s="1">
         <v>108</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -6068,18 +6289,18 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B22" s="1">
         <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -6112,18 +6333,18 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B23" s="1">
         <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -6156,18 +6377,18 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B24" s="1">
         <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -6200,18 +6421,18 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B26" s="1">
         <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -6244,18 +6465,18 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="1">
         <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -6288,18 +6509,18 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B28" s="1">
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1">
         <v>5</v>
@@ -6332,18 +6553,18 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B29" s="1">
         <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29" s="1">
         <v>5</v>
@@ -6376,18 +6597,18 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B30" s="1">
         <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
@@ -6420,18 +6641,18 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" s="1">
         <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
@@ -6464,18 +6685,18 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B33" s="1">
         <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -6508,18 +6729,18 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B34" s="1">
         <v>112</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1">
         <v>5</v>
@@ -6552,18 +6773,18 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1">
         <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="1">
         <v>5</v>
@@ -6596,18 +6817,18 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1">
         <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -6640,15 +6861,15 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B38" s="1">
         <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -6684,15 +6905,15 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" s="1">
         <v>114</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -6728,15 +6949,15 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B40" s="1">
         <v>114</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -6772,18 +6993,18 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B41" s="1">
         <v>114</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
@@ -6816,18 +7037,18 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B42" s="1">
         <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
